--- a/Software/STM32CubeDemo/RotaryEncoderWithDisplay/TouchGFX/assets/texts/texts.xlsx
+++ b/Software/STM32CubeDemo/RotaryEncoderWithDisplay/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="98">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -316,6 +316,27 @@
   </si>
   <si>
     <t xml:space="preserve">00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB-ALIGNMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB-TYPOGRAPHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB-DIRECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,0x2B,0x2D</t>
   </si>
 </sst>
 </file>
@@ -1546,7 +1567,7 @@
         <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="J5" t="s">
         <v>40</v>
@@ -1737,6 +1758,15 @@
       <c r="F3" t="s">
         <v>36</v>
       </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
@@ -1757,7 +1787,7 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
@@ -1769,32 +1799,47 @@
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>91</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
         <v>44</v>
@@ -1803,94 +1848,14 @@
         <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>90</v>
-      </c>
-    </row>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
